--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -338,11 +338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1037591584"/>
-        <c:axId val="1037584512"/>
+        <c:axId val="-1030590576"/>
+        <c:axId val="-1030586768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1037591584"/>
+        <c:axId val="-1030590576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037584512"/>
+        <c:crossAx val="-1030586768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -408,7 +408,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1037584512"/>
+        <c:axId val="-1030586768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +435,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -448,7 +448,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1600"/>
+                  <a:rPr lang="en-AU" sz="1800"/>
                   <a:t>Story Points Remaining</a:t>
                 </a:r>
               </a:p>
@@ -475,7 +475,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -522,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037591584"/>
+        <c:crossAx val="-1030590576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -635,7 +635,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -648,17 +648,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU" b="1"/>
+              <a:rPr lang="en-AU" sz="2800" b="1"/>
               <a:t>Sprint</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-AU" b="1" baseline="0"/>
+              <a:rPr lang="en-AU" sz="2800" b="1" baseline="0"/>
               <a:t> 1 Burndown Chart - Group 114</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24477925190857996"/>
+          <c:y val="2.7296592439554828E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -672,7 +679,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -690,7 +697,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1739210680856674E-2"/>
+          <c:y val="0.12306216513727491"/>
+          <c:w val="0.85919594533441945"/>
+          <c:h val="0.8232659152409515"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -813,11 +830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1288634240"/>
-        <c:axId val="1288640768"/>
+        <c:axId val="-1030579696"/>
+        <c:axId val="-1030581872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1288634240"/>
+        <c:axId val="-1030579696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288640768"/>
+        <c:crossAx val="-1030581872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -883,7 +900,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1288640768"/>
+        <c:axId val="-1030581872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +927,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -923,7 +940,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" b="1"/>
+                  <a:rPr lang="en-AU" sz="1800" b="1"/>
                   <a:t>Story Points Remaining</a:t>
                 </a:r>
               </a:p>
@@ -933,8 +950,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7743979721166033E-2"/>
-              <c:y val="0.31978371058831212"/>
+              <c:x val="1.0437996620285477E-2"/>
+              <c:y val="0.32818258262468564"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -950,7 +967,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -997,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288634240"/>
+        <c:crossAx val="-1030579696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,10 +1028,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73777749014249927"/>
+          <c:y val="0.71058221598069171"/>
+          <c:w val="0.20742798930955547"/>
+          <c:h val="0.1165572763853558"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1025,7 +1053,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1099,7 +1127,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1112,14 +1140,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU" b="1"/>
+              <a:rPr lang="en-AU" sz="2400" b="1"/>
               <a:t>Sprint</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-AU" b="1" baseline="0"/>
+              <a:rPr lang="en-AU" sz="2400" b="1" baseline="0"/>
               <a:t> 2 Burndown Chart - Group 114</a:t>
             </a:r>
-            <a:endParaRPr lang="en-AU" b="1"/>
+            <a:endParaRPr lang="en-AU" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1137,7 +1165,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1155,7 +1183,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0627016588031198E-2"/>
+          <c:y val="9.1242312423124236E-2"/>
+          <c:w val="0.82992440002826162"/>
+          <c:h val="0.85168937831110592"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1293,11 +1331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1236112688"/>
-        <c:axId val="1236111600"/>
+        <c:axId val="-1030593840"/>
+        <c:axId val="-1030588944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1236112688"/>
+        <c:axId val="-1030593840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236111600"/>
+        <c:crossAx val="-1030588944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1363,7 +1401,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1236111600"/>
+        <c:axId val="-1030588944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1428,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1403,14 +1441,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" b="1"/>
+                  <a:rPr lang="en-AU" sz="2000" b="1"/>
                   <a:t>Story</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-AU" b="1" baseline="0"/>
+                  <a:rPr lang="en-AU" sz="2000" b="1" baseline="0"/>
                   <a:t> Points Remaining</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU" b="1"/>
+                <a:endParaRPr lang="en-AU" sz="2000" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1418,8 +1456,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3888888888888888E-2"/>
-              <c:y val="0.30069845435987164"/>
+              <c:x val="1.3888936863948835E-2"/>
+              <c:y val="0.24165790161838627"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1435,7 +1473,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1482,7 +1520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236112688"/>
+        <c:crossAx val="-1030593840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1496,10 +1534,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79370518366161347"/>
+          <c:y val="0.27163552895371468"/>
+          <c:w val="0.17439052919980219"/>
+          <c:h val="0.20356761677853"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1510,7 +1559,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3226,16 +3275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3256,16 +3305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -256,7 +256,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
@@ -338,11 +338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1030590576"/>
-        <c:axId val="-1030586768"/>
+        <c:axId val="904827664"/>
+        <c:axId val="904823312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1030590576"/>
+        <c:axId val="904827664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030586768"/>
+        <c:crossAx val="904823312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -408,7 +408,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1030586768"/>
+        <c:axId val="904823312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030590576"/>
+        <c:crossAx val="904827664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,14 +743,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$10</c:f>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42619</c:v>
                 </c:pt>
               </c:numCache>
@@ -758,14 +761,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$10</c:f>
+              <c:f>Sheet1!$B$11:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,14 +811,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$10</c:f>
+              <c:f>Sheet1!$C$11:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,11 +839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1030579696"/>
-        <c:axId val="-1030581872"/>
+        <c:axId val="904832560"/>
+        <c:axId val="904824400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1030579696"/>
+        <c:axId val="904832560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030581872"/>
+        <c:crossAx val="904824400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -900,7 +909,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1030581872"/>
+        <c:axId val="904824400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030579696"/>
+        <c:crossAx val="904832560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1229,14 +1238,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:f>Sheet1!$A$15:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42634</c:v>
                 </c:pt>
               </c:numCache>
@@ -1244,14 +1262,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$13</c:f>
+              <c:f>Sheet1!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1291,14 +1318,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:f>Sheet1!$A$15:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42634</c:v>
                 </c:pt>
               </c:numCache>
@@ -1306,14 +1342,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$13</c:f>
+              <c:f>Sheet1!$C$15:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,11 +1376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1030593840"/>
-        <c:axId val="-1030588944"/>
+        <c:axId val="904818960"/>
+        <c:axId val="904819504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1030593840"/>
+        <c:axId val="904818960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030588944"/>
+        <c:crossAx val="904819504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1401,7 +1446,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1030588944"/>
+        <c:axId val="904819504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1030593840"/>
+        <c:crossAx val="904818960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,16 +3290,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3275,15 +3320,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3305,16 +3350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3599,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3684,7 @@
         <v>42613</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -3685,49 +3730,99 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42606</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42619</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42606</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42620</v>
+        <v>42612</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42623</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42630</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>42634</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -102,519 +102,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800" b="1"/>
-              <a:t>Release</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800" b="1" baseline="0"/>
-              <a:t> 1 Burndown Chart - Group 114</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1800" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3381745468350125E-2"/>
-          <c:y val="8.2012161415146487E-2"/>
-          <c:w val="0.69591853251316305"/>
-          <c:h val="0.86669260869754461"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Team Progress</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42606</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Estimated Progress</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="904827664"/>
-        <c:axId val="904823312"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="904827664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="904823312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="4"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="904823312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1800"/>
-                  <a:t>Story Points Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2263453003126526E-2"/>
-              <c:y val="0.33011791436518195"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="904827664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.65211445830126336"/>
-          <c:y val="0.37774539376607774"/>
-          <c:w val="0.30830606969317825"/>
-          <c:h val="0.13414989792942547"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -819,10 +306,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,11 +326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="904832560"/>
-        <c:axId val="904824400"/>
+        <c:axId val="-347788240"/>
+        <c:axId val="-347779536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="904832560"/>
+        <c:axId val="-347788240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904824400"/>
+        <c:crossAx val="-347779536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -909,7 +396,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="904824400"/>
+        <c:axId val="-347779536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904832560"/>
+        <c:crossAx val="-347788240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +602,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1238,7 +725,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$19</c:f>
+              <c:f>Sheet1!$A$14:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1262,12 +749,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$19</c:f>
+              <c:f>Sheet1!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -1318,7 +805,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$19</c:f>
+              <c:f>Sheet1!$A$14:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1342,21 +829,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$19</c:f>
+              <c:f>Sheet1!$C$14:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1376,11 +863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="904818960"/>
-        <c:axId val="904819504"/>
+        <c:axId val="-347777904"/>
+        <c:axId val="-347776272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="904818960"/>
+        <c:axId val="-347777904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904819504"/>
+        <c:crossAx val="-347776272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1446,7 +933,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="904819504"/>
+        <c:axId val="-347776272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904818960"/>
+        <c:crossAx val="-347777904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,6 +1092,1003 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47197721957759076"/>
+          <c:y val="2.3856858846918488E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-149299360"/>
+        <c:axId val="-149295008"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-149299360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-149295008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-149295008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-149299360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Group</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> 114 - Release 1 Burn Down Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4714811492445308E-2"/>
+          <c:y val="0.11622406447552078"/>
+          <c:w val="0.89135246279869029"/>
+          <c:h val="0.72493385579217973"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimated Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-81245872"/>
+        <c:axId val="-81251856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-81245872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-81251856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-81251856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-81245872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69585508562484555"/>
+          <c:y val="0.23417899388756705"/>
+          <c:w val="0.18787674747407629"/>
+          <c:h val="0.10575868510521021"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1777,6 +2261,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3286,24 +3810,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3320,20 +4347,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3350,20 +4377,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3373,6 +4400,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3644,10 +4701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,64 +4822,61 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>42620</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42620</v>
+        <v>42623</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42623</v>
+        <v>42626</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>18.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42626</v>
+        <v>42630</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>12.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42630</v>
+        <v>42634</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42634</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
         <v>0</v>
       </c>
     </row>
